--- a/XiaohuData/放疗中心排班表（2025-04-01至2025-04-30）.xlsx
+++ b/XiaohuData/放疗中心排班表（2025-04-01至2025-04-30）.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\99563\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\exec_code\Python\SY-WS-FastAPI\XiaohuData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FFA983A-9156-40AB-87D3-C271F685EAFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FDC32F4-C7F6-441F-85E5-D504D060AE88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="949" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="121">
   <si>
     <t>放疗中心排班表（2025-04-01至2025-04-30）</t>
   </si>
@@ -217,6 +217,17 @@
         <charset val="134"/>
       </rPr>
       <t>休息</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF101010"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>X</t>
     </r>
   </si>
   <si>
@@ -284,18 +295,7 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF101010"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>X</t>
-    </r>
-  </si>
-  <si>
-    <t>-7天0小时</t>
+    <t>-4天0小时</t>
   </si>
   <si>
     <t>赵仲</t>
@@ -322,7 +322,7 @@
     </r>
   </si>
   <si>
-    <t>-4天0小时</t>
+    <t>-1天0小时</t>
   </si>
   <si>
     <t>黄发生</t>
@@ -382,7 +382,7 @@
     </r>
   </si>
   <si>
-    <t>2天0小时</t>
+    <t>5天0小时</t>
   </si>
   <si>
     <t>黄文军</t>
@@ -455,7 +455,7 @@
     </r>
   </si>
   <si>
-    <t>-3天0小时</t>
+    <t>0天0小时</t>
   </si>
   <si>
     <t>余涛</t>
@@ -509,13 +509,13 @@
     </r>
   </si>
   <si>
-    <t>-1天0小时</t>
+    <t>2天0小时</t>
   </si>
   <si>
     <t>闫昱萤</t>
   </si>
   <si>
-    <t>-12天0小时</t>
+    <t>-8天0小时</t>
   </si>
   <si>
     <t>谭林</t>
@@ -524,7 +524,7 @@
     <t>王吉锐</t>
   </si>
   <si>
-    <t>-10天0小时</t>
+    <t>-7天0小时</t>
   </si>
   <si>
     <t>唐晓燕</t>
@@ -568,16 +568,19 @@
     </r>
   </si>
   <si>
-    <t>-17天0小时</t>
+    <t>-14天0小时</t>
   </si>
   <si>
     <t>康正樾</t>
   </si>
   <si>
+    <t>6天0小时</t>
+  </si>
+  <si>
     <t>戴梦莹</t>
   </si>
   <si>
-    <t>-68天0小时</t>
+    <t>-64天0小时</t>
   </si>
   <si>
     <t>凌子涵</t>
@@ -592,13 +595,13 @@
     <t>张旭辉</t>
   </si>
   <si>
-    <t>5天0小时</t>
+    <t>8天0小时</t>
   </si>
   <si>
     <t>廖中凡</t>
   </si>
   <si>
-    <t>4天0小时</t>
+    <t>7天0小时</t>
   </si>
   <si>
     <t>江津</t>
@@ -624,7 +627,7 @@
     <t>尹红科</t>
   </si>
   <si>
-    <t>7天0小时</t>
+    <t>10天0小时</t>
   </si>
   <si>
     <t>杨星</t>
@@ -650,7 +653,7 @@
     </r>
   </si>
   <si>
-    <t>0天0小时</t>
+    <t>4天0小时</t>
   </si>
   <si>
     <t>郑霞</t>
@@ -665,6 +668,9 @@
       </rPr>
       <t>N2</t>
     </r>
+  </si>
+  <si>
+    <t>放射假</t>
   </si>
   <si>
     <t>金小靖</t>
@@ -827,16 +833,12 @@
       <t xml:space="preserve">    X:00:00-01:00</t>
     </r>
   </si>
-  <si>
-    <t>S1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -879,13 +881,6 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF101010"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -922,19 +917,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -951,6 +940,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1264,8 +1256,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AP36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="AK6" sqref="AK6"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="AM3" sqref="AM3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1274,50 +1266,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
-      <c r="U1" s="8"/>
-      <c r="V1" s="8"/>
-      <c r="W1" s="8"/>
-      <c r="X1" s="8"/>
-      <c r="Y1" s="8"/>
-      <c r="Z1" s="8"/>
-      <c r="AA1" s="8"/>
-      <c r="AB1" s="8"/>
-      <c r="AC1" s="8"/>
-      <c r="AD1" s="8"/>
-      <c r="AE1" s="8"/>
-      <c r="AF1" s="8"/>
-      <c r="AG1" s="8"/>
-      <c r="AH1" s="8"/>
-      <c r="AI1" s="8"/>
-      <c r="AJ1" s="8"/>
-      <c r="AK1" s="8"/>
-      <c r="AL1" s="8"/>
-      <c r="AM1" s="8"/>
-      <c r="AN1" s="7"/>
-      <c r="AO1" s="7"/>
-      <c r="AP1" s="7"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+      <c r="V1" s="6"/>
+      <c r="W1" s="6"/>
+      <c r="X1" s="6"/>
+      <c r="Y1" s="6"/>
+      <c r="Z1" s="6"/>
+      <c r="AA1" s="6"/>
+      <c r="AB1" s="6"/>
+      <c r="AC1" s="6"/>
+      <c r="AD1" s="6"/>
+      <c r="AE1" s="6"/>
+      <c r="AF1" s="6"/>
+      <c r="AG1" s="6"/>
+      <c r="AH1" s="6"/>
+      <c r="AI1" s="6"/>
+      <c r="AJ1" s="6"/>
+      <c r="AK1" s="6"/>
+      <c r="AL1" s="6"/>
+      <c r="AM1" s="6"/>
+      <c r="AN1" s="5"/>
+      <c r="AO1" s="5"/>
+      <c r="AP1" s="5"/>
     </row>
     <row r="2" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -1440,37 +1432,37 @@
       <c r="AN2" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AO2" s="11" t="s">
+      <c r="AO2" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="AP2" s="7"/>
+      <c r="AP2" s="5"/>
     </row>
     <row r="3" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="I3" s="5">
+      <c r="C3" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="I3" s="9">
         <v>13880017909</v>
       </c>
       <c r="J3" s="3" t="s">
@@ -1497,8 +1489,8 @@
       <c r="Q3" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="R3" s="4" t="s">
-        <v>119</v>
+      <c r="R3" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="S3" s="3" t="s">
         <v>45</v>
@@ -1552,169 +1544,181 @@
         <v>47</v>
       </c>
       <c r="AJ3" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="AK3" s="3"/>
-      <c r="AL3" s="3"/>
-      <c r="AM3" s="3"/>
+        <v>48</v>
+      </c>
+      <c r="AK3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AL3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AM3" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="AN3" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AO3" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="AP3" s="7"/>
+      <c r="AO3" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="AP3" s="5"/>
     </row>
     <row r="4" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="I4" s="5">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4" s="9">
         <v>15982399945</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M4" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="X4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z4" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA4" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD4" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="N4" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="R4" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="S4" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="T4" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="U4" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="V4" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="W4" s="3" t="s">
+      <c r="AE4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK4" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="X4" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y4" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z4" s="3" t="s">
+      <c r="AL4" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="AA4" s="3" t="s">
+      <c r="AM4" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="AB4" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="AC4" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD4" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="AE4" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="AF4" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="AG4" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="AH4" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="AI4" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="AJ4" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="AK4" s="3"/>
-      <c r="AL4" s="3"/>
-      <c r="AM4" s="3"/>
       <c r="AN4" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="AO4" s="7"/>
-      <c r="AP4" s="7"/>
+      <c r="AO4" s="5"/>
+      <c r="AP4" s="5"/>
     </row>
     <row r="5" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5" t="s">
+      <c r="A5" s="9"/>
+      <c r="B5" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="I5" s="5">
+      <c r="C5" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5" s="9">
         <v>13308050581</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M5" s="3" t="s">
         <v>58</v>
@@ -1726,19 +1730,19 @@
         <v>47</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T5" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U5" s="3" t="s">
         <v>47</v>
@@ -1747,19 +1751,19 @@
         <v>47</v>
       </c>
       <c r="W5" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="X5" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Y5" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Z5" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AA5" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AB5" s="3" t="s">
         <v>47</v>
@@ -1768,19 +1772,19 @@
         <v>47</v>
       </c>
       <c r="AD5" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AE5" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AF5" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AG5" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AH5" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AI5" s="3" t="s">
         <v>47</v>
@@ -1788,39 +1792,45 @@
       <c r="AJ5" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="AK5" s="3"/>
-      <c r="AL5" s="3"/>
-      <c r="AM5" s="3"/>
+      <c r="AK5" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AL5" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AM5" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="AN5" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="AO5" s="7"/>
-      <c r="AP5" s="7"/>
+      <c r="AO5" s="5"/>
+      <c r="AP5" s="5"/>
     </row>
     <row r="6" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5" t="s">
+      <c r="A6" s="9"/>
+      <c r="B6" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="I6" s="5">
+      <c r="C6" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="I6" s="9">
         <v>13981908955</v>
       </c>
       <c r="J6" s="3" t="s">
@@ -1904,49 +1914,55 @@
       <c r="AJ6" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="AK6" s="3"/>
-      <c r="AL6" s="3"/>
-      <c r="AM6" s="3"/>
+      <c r="AK6" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AL6" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AM6" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="AN6" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="AO6" s="7"/>
-      <c r="AP6" s="7"/>
+      <c r="AO6" s="5"/>
+      <c r="AP6" s="5"/>
     </row>
     <row r="7" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5" t="s">
+      <c r="A7" s="9"/>
+      <c r="B7" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="I7" s="5">
+      <c r="C7" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="I7" s="9">
         <v>13330998436</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M7" s="3" t="s">
         <v>67</v>
@@ -1958,19 +1974,19 @@
         <v>47</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="R7" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="S7" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T7" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U7" s="3" t="s">
         <v>47</v>
@@ -1979,19 +1995,19 @@
         <v>47</v>
       </c>
       <c r="W7" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="X7" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Y7" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Z7" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AA7" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AB7" s="3" t="s">
         <v>47</v>
@@ -2000,59 +2016,65 @@
         <v>47</v>
       </c>
       <c r="AD7" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AE7" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AF7" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AG7" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AH7" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AI7" s="3" t="s">
         <v>47</v>
       </c>
       <c r="AJ7" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="AK7" s="3"/>
-      <c r="AL7" s="3"/>
-      <c r="AM7" s="3"/>
+        <v>48</v>
+      </c>
+      <c r="AK7" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AL7" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AM7" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="AN7" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AO7" s="7"/>
-      <c r="AP7" s="7"/>
+        <v>49</v>
+      </c>
+      <c r="AO7" s="5"/>
+      <c r="AP7" s="5"/>
     </row>
     <row r="8" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5" t="s">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="I8" s="5">
+      <c r="C8" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="I8" s="9">
         <v>13550188002</v>
       </c>
       <c r="J8" s="3" t="s">
@@ -2136,39 +2158,45 @@
       <c r="AJ8" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="AK8" s="3"/>
-      <c r="AL8" s="3"/>
-      <c r="AM8" s="3"/>
+      <c r="AK8" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AL8" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AM8" s="3" t="s">
+        <v>69</v>
+      </c>
       <c r="AN8" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="AO8" s="7"/>
-      <c r="AP8" s="7"/>
+      <c r="AO8" s="5"/>
+      <c r="AP8" s="5"/>
     </row>
     <row r="9" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5" t="s">
+      <c r="A9" s="9"/>
+      <c r="B9" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="I9" s="5">
+      <c r="C9" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="I9" s="9">
         <v>13908065093</v>
       </c>
       <c r="J9" s="3" t="s">
@@ -2250,41 +2278,47 @@
         <v>47</v>
       </c>
       <c r="AJ9" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="AK9" s="3"/>
-      <c r="AL9" s="3"/>
-      <c r="AM9" s="3"/>
+        <v>48</v>
+      </c>
+      <c r="AK9" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AL9" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AM9" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="AN9" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AO9" s="7"/>
-      <c r="AP9" s="7"/>
+      <c r="AO9" s="5"/>
+      <c r="AP9" s="5"/>
     </row>
     <row r="10" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5" t="s">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="I10" s="5">
+      <c r="C10" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="I10" s="9">
         <v>13709082460</v>
       </c>
       <c r="J10" s="3" t="s">
@@ -2368,39 +2402,45 @@
       <c r="AJ10" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="AK10" s="3"/>
-      <c r="AL10" s="3"/>
-      <c r="AM10" s="3"/>
+      <c r="AK10" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AL10" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AM10" s="3" t="s">
+        <v>64</v>
+      </c>
       <c r="AN10" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="AO10" s="7"/>
-      <c r="AP10" s="7"/>
+      <c r="AO10" s="5"/>
+      <c r="AP10" s="5"/>
     </row>
     <row r="11" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5" t="s">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="I11" s="5">
+      <c r="C11" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="I11" s="9">
         <v>18384234188</v>
       </c>
       <c r="J11" s="3" t="s">
@@ -2443,19 +2483,19 @@
         <v>47</v>
       </c>
       <c r="W11" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="X11" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="Y11" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="Z11" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AA11" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AB11" s="3" t="s">
         <v>47</v>
@@ -2484,39 +2524,45 @@
       <c r="AJ11" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="AK11" s="3"/>
-      <c r="AL11" s="3"/>
-      <c r="AM11" s="3"/>
+      <c r="AK11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM11" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="AN11" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="AO11" s="7"/>
-      <c r="AP11" s="7"/>
+      <c r="AO11" s="5"/>
+      <c r="AP11" s="5"/>
     </row>
     <row r="12" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5" t="s">
+      <c r="A12" s="9"/>
+      <c r="B12" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="I12" s="5">
+      <c r="C12" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="I12" s="9">
         <v>18781915679</v>
       </c>
       <c r="J12" s="3" t="s">
@@ -2580,19 +2626,19 @@
         <v>47</v>
       </c>
       <c r="AD12" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AE12" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AF12" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AG12" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AH12" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AI12" s="3" t="s">
         <v>47</v>
@@ -2600,49 +2646,55 @@
       <c r="AJ12" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="AK12" s="3"/>
-      <c r="AL12" s="3"/>
-      <c r="AM12" s="3"/>
+      <c r="AK12" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AL12" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AM12" s="3" t="s">
+        <v>69</v>
+      </c>
       <c r="AN12" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="AO12" s="7"/>
-      <c r="AP12" s="7"/>
+      <c r="AO12" s="5"/>
+      <c r="AP12" s="5"/>
     </row>
     <row r="13" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5" t="s">
+      <c r="A13" s="9"/>
+      <c r="B13" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="I13" s="5">
+      <c r="C13" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="I13" s="9">
         <v>18583278110</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M13" s="3" t="s">
         <v>58</v>
@@ -2654,19 +2706,19 @@
         <v>47</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="Q13" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="R13" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="S13" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="T13" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="U13" s="3" t="s">
         <v>47</v>
@@ -2716,39 +2768,45 @@
       <c r="AJ13" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="AK13" s="3"/>
-      <c r="AL13" s="3"/>
-      <c r="AM13" s="3"/>
+      <c r="AK13" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL13" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AM13" s="3" t="s">
+        <v>61</v>
+      </c>
       <c r="AN13" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="AO13" s="7"/>
-      <c r="AP13" s="7"/>
+      <c r="AO13" s="5"/>
+      <c r="AP13" s="5"/>
     </row>
     <row r="14" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5" t="s">
+      <c r="A14" s="9"/>
+      <c r="B14" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="I14" s="5" t="s">
+      <c r="C14" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="I14" s="9" t="s">
         <v>44</v>
       </c>
       <c r="J14" s="3" t="s">
@@ -2800,7 +2858,7 @@
         <v>71</v>
       </c>
       <c r="Z14" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AA14" s="3" t="s">
         <v>71</v>
@@ -2832,49 +2890,55 @@
       <c r="AJ14" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="AK14" s="3"/>
-      <c r="AL14" s="3"/>
-      <c r="AM14" s="3"/>
+      <c r="AK14" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL14" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM14" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="AN14" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AO14" s="7"/>
-      <c r="AP14" s="7"/>
+        <v>75</v>
+      </c>
+      <c r="AO14" s="5"/>
+      <c r="AP14" s="5"/>
     </row>
     <row r="15" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5" t="s">
+      <c r="A15" s="9"/>
+      <c r="B15" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="I15" s="5">
+      <c r="C15" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="I15" s="9">
         <v>13547954943</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>67</v>
@@ -2886,101 +2950,107 @@
         <v>47</v>
       </c>
       <c r="P15" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="R15" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="S15" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="T15" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="U15" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="V15" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="W15" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="X15" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y15" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z15" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA15" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB15" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC15" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD15" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="Q15" s="3" t="s">
+      <c r="AE15" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="R15" s="3" t="s">
+      <c r="AF15" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="S15" s="3" t="s">
+      <c r="AG15" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="T15" s="3" t="s">
+      <c r="AH15" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="U15" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="V15" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="W15" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="X15" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y15" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z15" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="AA15" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="AB15" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="AC15" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD15" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="AE15" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="AF15" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="AG15" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="AH15" s="3" t="s">
-        <v>54</v>
-      </c>
       <c r="AI15" s="3" t="s">
         <v>47</v>
       </c>
       <c r="AJ15" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="AK15" s="3"/>
-      <c r="AL15" s="3"/>
-      <c r="AM15" s="3"/>
+      <c r="AK15" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AL15" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AM15" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="AN15" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="AO15" s="7"/>
-      <c r="AP15" s="7"/>
+      <c r="AO15" s="5"/>
+      <c r="AP15" s="5"/>
     </row>
     <row r="16" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5" t="s">
+      <c r="A16" s="9"/>
+      <c r="B16" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="C16" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="I16" s="5">
+      <c r="C16" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="I16" s="9">
         <v>18384188852</v>
       </c>
       <c r="J16" s="3" t="s">
@@ -3023,19 +3093,19 @@
         <v>47</v>
       </c>
       <c r="W16" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="X16" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="Y16" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="Z16" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AA16" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AB16" s="3" t="s">
         <v>47</v>
@@ -3044,19 +3114,19 @@
         <v>47</v>
       </c>
       <c r="AD16" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AE16" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AF16" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AG16" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AH16" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AI16" s="3" t="s">
         <v>47</v>
@@ -3064,39 +3134,45 @@
       <c r="AJ16" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="AK16" s="3"/>
-      <c r="AL16" s="3"/>
-      <c r="AM16" s="3"/>
+      <c r="AK16" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL16" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM16" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="AN16" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="AO16" s="7"/>
-      <c r="AP16" s="7"/>
+      <c r="AO16" s="5"/>
+      <c r="AP16" s="5"/>
     </row>
     <row r="17" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5" t="s">
+      <c r="A17" s="9"/>
+      <c r="B17" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="I17" s="5" t="s">
+      <c r="C17" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="I17" s="9" t="s">
         <v>44</v>
       </c>
       <c r="J17" s="3" t="s">
@@ -3118,111 +3194,117 @@
         <v>47</v>
       </c>
       <c r="P17" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="R17" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="S17" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="T17" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="U17" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="V17" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="W17" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="X17" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y17" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z17" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA17" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB17" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC17" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD17" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="Q17" s="3" t="s">
+      <c r="AE17" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="R17" s="3" t="s">
+      <c r="AF17" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="S17" s="3" t="s">
+      <c r="AG17" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="T17" s="3" t="s">
+      <c r="AH17" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="U17" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="V17" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="W17" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="X17" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y17" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z17" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="AA17" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="AB17" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="AC17" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD17" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="AE17" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="AF17" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="AG17" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="AH17" s="3" t="s">
-        <v>53</v>
-      </c>
       <c r="AI17" s="3" t="s">
         <v>47</v>
       </c>
       <c r="AJ17" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="AK17" s="3"/>
-      <c r="AL17" s="3"/>
-      <c r="AM17" s="3"/>
+        <v>45</v>
+      </c>
+      <c r="AK17" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL17" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM17" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="AN17" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="AO17" s="7"/>
-      <c r="AP17" s="7"/>
+        <v>91</v>
+      </c>
+      <c r="AO17" s="5"/>
+      <c r="AP17" s="5"/>
     </row>
     <row r="18" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="H18" s="5">
+      <c r="A18" s="9"/>
+      <c r="B18" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H18" s="9">
         <v>5221</v>
       </c>
-      <c r="I18" s="5">
+      <c r="I18" s="9">
         <v>13349978928</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="M18" s="3" t="s">
         <v>46</v>
@@ -3296,155 +3378,167 @@
       <c r="AJ18" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="AK18" s="3"/>
-      <c r="AL18" s="3"/>
-      <c r="AM18" s="3"/>
+      <c r="AK18" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AL18" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AM18" s="3" t="s">
+        <v>88</v>
+      </c>
       <c r="AN18" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AO18" s="7"/>
-      <c r="AP18" s="7"/>
+        <v>93</v>
+      </c>
+      <c r="AO18" s="5"/>
+      <c r="AP18" s="5"/>
     </row>
     <row r="19" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="I19" s="5" t="s">
+      <c r="A19" s="9"/>
+      <c r="B19" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="I19" s="9" t="s">
         <v>44</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M19" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="P19" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q19" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="R19" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="S19" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="T19" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="U19" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="V19" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="W19" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="X19" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y19" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z19" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA19" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB19" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC19" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD19" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="N19" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="O19" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="P19" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q19" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="R19" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="S19" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="T19" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="U19" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="V19" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="W19" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="X19" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y19" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z19" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="AA19" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB19" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="AC19" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD19" s="3" t="s">
-        <v>51</v>
-      </c>
       <c r="AE19" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AF19" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AG19" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AH19" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI19" s="3" t="s">
         <v>47</v>
       </c>
       <c r="AJ19" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="AK19" s="3"/>
-      <c r="AL19" s="3"/>
-      <c r="AM19" s="3"/>
+        <v>48</v>
+      </c>
+      <c r="AK19" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AL19" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AM19" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="AN19" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AO19" s="7"/>
-      <c r="AP19" s="7"/>
+        <v>95</v>
+      </c>
+      <c r="AO19" s="5"/>
+      <c r="AP19" s="5"/>
     </row>
     <row r="20" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="I20" s="5" t="s">
+      <c r="A20" s="9"/>
+      <c r="B20" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="I20" s="9" t="s">
         <v>44</v>
       </c>
       <c r="J20" s="3" t="s">
@@ -3466,19 +3560,19 @@
         <v>47</v>
       </c>
       <c r="P20" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q20" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R20" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S20" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T20" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U20" s="3" t="s">
         <v>47</v>
@@ -3528,39 +3622,45 @@
       <c r="AJ20" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="AK20" s="3"/>
-      <c r="AL20" s="3"/>
-      <c r="AM20" s="3"/>
+      <c r="AK20" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL20" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AM20" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="AN20" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="AO20" s="7"/>
-      <c r="AP20" s="7"/>
+      <c r="AO20" s="5"/>
+      <c r="AP20" s="5"/>
     </row>
     <row r="21" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="I21" s="5" t="s">
+      <c r="A21" s="9"/>
+      <c r="B21" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="I21" s="9" t="s">
         <v>44</v>
       </c>
       <c r="J21" s="3" t="s">
@@ -3644,39 +3744,45 @@
       <c r="AJ21" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="AK21" s="3"/>
-      <c r="AL21" s="3"/>
-      <c r="AM21" s="3"/>
+      <c r="AK21" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL21" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AM21" s="3" t="s">
+        <v>61</v>
+      </c>
       <c r="AN21" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="AO21" s="7"/>
-      <c r="AP21" s="7"/>
+        <v>98</v>
+      </c>
+      <c r="AO21" s="5"/>
+      <c r="AP21" s="5"/>
     </row>
     <row r="22" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="I22" s="5">
+      <c r="A22" s="9"/>
+      <c r="B22" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="I22" s="9">
         <v>13778714235</v>
       </c>
       <c r="J22" s="3" t="s">
@@ -3760,49 +3866,55 @@
       <c r="AJ22" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="AK22" s="3"/>
-      <c r="AL22" s="3"/>
-      <c r="AM22" s="3"/>
+      <c r="AK22" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AL22" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AM22" s="3" t="s">
+        <v>64</v>
+      </c>
       <c r="AN22" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="AO22" s="7"/>
-      <c r="AP22" s="7"/>
+        <v>100</v>
+      </c>
+      <c r="AO22" s="5"/>
+      <c r="AP22" s="5"/>
     </row>
     <row r="23" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="I23" s="5" t="s">
+      <c r="A23" s="9"/>
+      <c r="B23" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="I23" s="9" t="s">
         <v>44</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M23" s="3" t="s">
         <v>46</v>
@@ -3814,19 +3926,19 @@
         <v>47</v>
       </c>
       <c r="P23" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q23" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="R23" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="S23" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="T23" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="U23" s="3" t="s">
         <v>47</v>
@@ -3838,10 +3950,10 @@
         <v>61</v>
       </c>
       <c r="X23" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y23" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Z23" s="3" t="s">
         <v>69</v>
@@ -3873,52 +3985,50 @@
       <c r="AI23" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="AJ23" s="3" t="s">
-        <v>47</v>
-      </c>
+      <c r="AJ23" s="3"/>
       <c r="AK23" s="3"/>
       <c r="AL23" s="3"/>
       <c r="AM23" s="3"/>
       <c r="AN23" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AO23" s="7"/>
-      <c r="AP23" s="7"/>
+        <v>83</v>
+      </c>
+      <c r="AO23" s="5"/>
+      <c r="AP23" s="5"/>
     </row>
     <row r="24" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="I24" s="5" t="s">
+      <c r="A24" s="9"/>
+      <c r="B24" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="I24" s="9" t="s">
         <v>44</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>45</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="M24" s="3" t="s">
         <v>46</v>
@@ -3968,35 +4078,35 @@
       <c r="AL24" s="3"/>
       <c r="AM24" s="3"/>
       <c r="AN24" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="AO24" s="7"/>
-      <c r="AP24" s="7"/>
+        <v>104</v>
+      </c>
+      <c r="AO24" s="5"/>
+      <c r="AP24" s="5"/>
     </row>
     <row r="25" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="H25" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="I25" s="5">
+      <c r="A25" s="9"/>
+      <c r="B25" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="I25" s="9">
         <v>15082857615</v>
       </c>
       <c r="J25" s="3" t="s">
@@ -4080,49 +4190,55 @@
       <c r="AJ25" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="AK25" s="3"/>
-      <c r="AL25" s="3"/>
-      <c r="AM25" s="3"/>
+      <c r="AK25" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AL25" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AM25" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="AN25" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="AO25" s="7"/>
-      <c r="AP25" s="7"/>
+        <v>106</v>
+      </c>
+      <c r="AO25" s="5"/>
+      <c r="AP25" s="5"/>
     </row>
     <row r="26" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D26" s="5" t="s">
+      <c r="A26" s="9"/>
+      <c r="B26" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="C26" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="F26" s="5">
+      <c r="E26" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="F26" s="9">
         <v>25</v>
       </c>
-      <c r="G26" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="H26" s="5">
+      <c r="G26" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="H26" s="9">
         <v>9105</v>
       </c>
-      <c r="I26" s="5">
+      <c r="I26" s="9">
         <v>13408050350</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M26" s="3" t="s">
         <v>46</v>
@@ -4134,19 +4250,19 @@
         <v>47</v>
       </c>
       <c r="P26" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q26" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="R26" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="S26" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="T26" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="U26" s="3" t="s">
         <v>47</v>
@@ -4155,19 +4271,19 @@
         <v>47</v>
       </c>
       <c r="W26" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="X26" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Y26" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Z26" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AA26" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AB26" s="3" t="s">
         <v>47</v>
@@ -4176,69 +4292,75 @@
         <v>47</v>
       </c>
       <c r="AD26" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AE26" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AF26" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AG26" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AH26" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AI26" s="3" t="s">
         <v>47</v>
       </c>
       <c r="AJ26" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="AK26" s="3"/>
-      <c r="AL26" s="3"/>
-      <c r="AM26" s="3"/>
+        <v>111</v>
+      </c>
+      <c r="AK26" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="AL26" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="AM26" s="3" t="s">
+        <v>111</v>
+      </c>
       <c r="AN26" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="AO26" s="7"/>
-      <c r="AP26" s="7"/>
+        <v>112</v>
+      </c>
+      <c r="AO26" s="5"/>
+      <c r="AP26" s="5"/>
     </row>
     <row r="27" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="I27" s="5">
+      <c r="A27" s="9"/>
+      <c r="B27" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="I27" s="9">
         <v>13547949150</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="M27" s="3" t="s">
         <v>46</v>
@@ -4250,19 +4372,19 @@
         <v>47</v>
       </c>
       <c r="P27" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q27" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="R27" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="S27" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="T27" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="U27" s="3" t="s">
         <v>47</v>
@@ -4271,19 +4393,19 @@
         <v>47</v>
       </c>
       <c r="W27" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="X27" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Y27" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Z27" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AA27" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AB27" s="3" t="s">
         <v>47</v>
@@ -4292,69 +4414,75 @@
         <v>47</v>
       </c>
       <c r="AD27" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AE27" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AF27" s="3" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AG27" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AH27" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AI27" s="3" t="s">
         <v>47</v>
       </c>
       <c r="AJ27" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="AK27" s="3"/>
-      <c r="AL27" s="3"/>
-      <c r="AM27" s="3"/>
+        <v>114</v>
+      </c>
+      <c r="AK27" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="AL27" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="AM27" s="3" t="s">
+        <v>114</v>
+      </c>
       <c r="AN27" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="AO27" s="7"/>
-      <c r="AP27" s="7"/>
+      <c r="AO27" s="5"/>
+      <c r="AP27" s="5"/>
     </row>
     <row r="28" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5" t="s">
+      <c r="A28" s="9"/>
+      <c r="B28" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="I28" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="J28" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="C28" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="H28" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="I28" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="J28" s="3" t="s">
-        <v>113</v>
-      </c>
       <c r="K28" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M28" s="3" t="s">
         <v>46</v>
@@ -4366,19 +4494,19 @@
         <v>47</v>
       </c>
       <c r="P28" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q28" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="R28" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="S28" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="T28" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="U28" s="3" t="s">
         <v>47</v>
@@ -4387,19 +4515,19 @@
         <v>47</v>
       </c>
       <c r="W28" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="X28" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Y28" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Z28" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AA28" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AB28" s="3" t="s">
         <v>47</v>
@@ -4408,398 +4536,597 @@
         <v>47</v>
       </c>
       <c r="AD28" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AE28" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AF28" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AG28" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AH28" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AI28" s="3" t="s">
         <v>47</v>
       </c>
       <c r="AJ28" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="AK28" s="3"/>
-      <c r="AL28" s="3"/>
-      <c r="AM28" s="3"/>
+        <v>48</v>
+      </c>
+      <c r="AK28" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AL28" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AM28" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="AN28" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AO28" s="7"/>
-      <c r="AP28" s="7"/>
+      <c r="AO28" s="5"/>
+      <c r="AP28" s="5"/>
     </row>
     <row r="29" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A29" s="7"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="8"/>
-      <c r="M29" s="8"/>
-      <c r="N29" s="8"/>
-      <c r="O29" s="8"/>
-      <c r="P29" s="8"/>
-      <c r="Q29" s="8"/>
-      <c r="R29" s="8"/>
-      <c r="S29" s="8"/>
-      <c r="T29" s="8"/>
-      <c r="U29" s="8"/>
-      <c r="V29" s="8"/>
-      <c r="W29" s="8"/>
-      <c r="X29" s="8"/>
-      <c r="Y29" s="8"/>
-      <c r="Z29" s="8"/>
-      <c r="AA29" s="8"/>
-      <c r="AB29" s="8"/>
-      <c r="AC29" s="8"/>
-      <c r="AD29" s="8"/>
-      <c r="AE29" s="8"/>
-      <c r="AF29" s="8"/>
-      <c r="AG29" s="8"/>
-      <c r="AH29" s="8"/>
-      <c r="AI29" s="8"/>
-      <c r="AJ29" s="8"/>
-      <c r="AK29" s="8"/>
-      <c r="AL29" s="8"/>
-      <c r="AM29" s="8"/>
-      <c r="AN29" s="7"/>
-      <c r="AO29" s="7"/>
-      <c r="AP29" s="7"/>
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="6"/>
+      <c r="O29" s="6"/>
+      <c r="P29" s="6"/>
+      <c r="Q29" s="6"/>
+      <c r="R29" s="6"/>
+      <c r="S29" s="6"/>
+      <c r="T29" s="6"/>
+      <c r="U29" s="6"/>
+      <c r="V29" s="6"/>
+      <c r="W29" s="6"/>
+      <c r="X29" s="6"/>
+      <c r="Y29" s="6"/>
+      <c r="Z29" s="6"/>
+      <c r="AA29" s="6"/>
+      <c r="AB29" s="6"/>
+      <c r="AC29" s="6"/>
+      <c r="AD29" s="6"/>
+      <c r="AE29" s="6"/>
+      <c r="AF29" s="6"/>
+      <c r="AG29" s="6"/>
+      <c r="AH29" s="6"/>
+      <c r="AI29" s="6"/>
+      <c r="AJ29" s="6"/>
+      <c r="AK29" s="6"/>
+      <c r="AL29" s="6"/>
+      <c r="AM29" s="6"/>
+      <c r="AN29" s="5"/>
+      <c r="AO29" s="5"/>
+      <c r="AP29" s="5"/>
     </row>
     <row r="30" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
-      <c r="M30" s="8"/>
-      <c r="N30" s="8"/>
-      <c r="O30" s="8"/>
-      <c r="P30" s="8"/>
-      <c r="Q30" s="8"/>
-      <c r="R30" s="8"/>
-      <c r="S30" s="8"/>
-      <c r="T30" s="8"/>
-      <c r="U30" s="8"/>
-      <c r="V30" s="8"/>
-      <c r="W30" s="8"/>
-      <c r="X30" s="8"/>
-      <c r="Y30" s="8"/>
-      <c r="Z30" s="8"/>
-      <c r="AA30" s="8"/>
-      <c r="AB30" s="8"/>
-      <c r="AC30" s="8"/>
-      <c r="AD30" s="8"/>
-      <c r="AE30" s="8"/>
-      <c r="AF30" s="8"/>
-      <c r="AG30" s="8"/>
-      <c r="AH30" s="8"/>
-      <c r="AI30" s="8"/>
-      <c r="AJ30" s="8"/>
-      <c r="AK30" s="8"/>
-      <c r="AL30" s="8"/>
-      <c r="AM30" s="8"/>
-      <c r="AN30" s="7"/>
-      <c r="AO30" s="7"/>
-      <c r="AP30" s="7"/>
+      <c r="A30" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
+      <c r="N30" s="6"/>
+      <c r="O30" s="6"/>
+      <c r="P30" s="6"/>
+      <c r="Q30" s="6"/>
+      <c r="R30" s="6"/>
+      <c r="S30" s="6"/>
+      <c r="T30" s="6"/>
+      <c r="U30" s="6"/>
+      <c r="V30" s="6"/>
+      <c r="W30" s="6"/>
+      <c r="X30" s="6"/>
+      <c r="Y30" s="6"/>
+      <c r="Z30" s="6"/>
+      <c r="AA30" s="6"/>
+      <c r="AB30" s="6"/>
+      <c r="AC30" s="6"/>
+      <c r="AD30" s="6"/>
+      <c r="AE30" s="6"/>
+      <c r="AF30" s="6"/>
+      <c r="AG30" s="6"/>
+      <c r="AH30" s="6"/>
+      <c r="AI30" s="6"/>
+      <c r="AJ30" s="6"/>
+      <c r="AK30" s="6"/>
+      <c r="AL30" s="6"/>
+      <c r="AM30" s="6"/>
+      <c r="AN30" s="5"/>
+      <c r="AO30" s="5"/>
+      <c r="AP30" s="5"/>
     </row>
     <row r="31" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A31" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9"/>
-      <c r="L31" s="9"/>
-      <c r="M31" s="9"/>
-      <c r="N31" s="9"/>
-      <c r="O31" s="9"/>
-      <c r="P31" s="9"/>
-      <c r="Q31" s="9"/>
-      <c r="R31" s="9"/>
-      <c r="S31" s="9"/>
-      <c r="T31" s="9"/>
-      <c r="U31" s="9"/>
-      <c r="V31" s="9"/>
-      <c r="W31" s="9"/>
-      <c r="X31" s="9"/>
-      <c r="Y31" s="9"/>
-      <c r="Z31" s="9"/>
-      <c r="AA31" s="9"/>
-      <c r="AB31" s="9"/>
-      <c r="AC31" s="9"/>
-      <c r="AD31" s="9"/>
-      <c r="AE31" s="9"/>
-      <c r="AF31" s="9"/>
-      <c r="AG31" s="9"/>
-      <c r="AH31" s="9"/>
-      <c r="AI31" s="9"/>
-      <c r="AJ31" s="9"/>
-      <c r="AK31" s="9"/>
-      <c r="AL31" s="9"/>
-      <c r="AM31" s="9"/>
-      <c r="AN31" s="9"/>
-      <c r="AO31" s="9"/>
-      <c r="AP31" s="9"/>
+      <c r="A31" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="7"/>
+      <c r="N31" s="7"/>
+      <c r="O31" s="7"/>
+      <c r="P31" s="7"/>
+      <c r="Q31" s="7"/>
+      <c r="R31" s="7"/>
+      <c r="S31" s="7"/>
+      <c r="T31" s="7"/>
+      <c r="U31" s="7"/>
+      <c r="V31" s="7"/>
+      <c r="W31" s="7"/>
+      <c r="X31" s="7"/>
+      <c r="Y31" s="7"/>
+      <c r="Z31" s="7"/>
+      <c r="AA31" s="7"/>
+      <c r="AB31" s="7"/>
+      <c r="AC31" s="7"/>
+      <c r="AD31" s="7"/>
+      <c r="AE31" s="7"/>
+      <c r="AF31" s="7"/>
+      <c r="AG31" s="7"/>
+      <c r="AH31" s="7"/>
+      <c r="AI31" s="7"/>
+      <c r="AJ31" s="7"/>
+      <c r="AK31" s="7"/>
+      <c r="AL31" s="7"/>
+      <c r="AM31" s="7"/>
+      <c r="AN31" s="7"/>
+      <c r="AO31" s="7"/>
+      <c r="AP31" s="7"/>
     </row>
     <row r="32" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A32" s="9"/>
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
-      <c r="K32" s="9"/>
-      <c r="L32" s="9"/>
-      <c r="M32" s="9"/>
-      <c r="N32" s="9"/>
-      <c r="O32" s="9"/>
-      <c r="P32" s="9"/>
-      <c r="Q32" s="9"/>
-      <c r="R32" s="9"/>
-      <c r="S32" s="9"/>
-      <c r="T32" s="9"/>
-      <c r="U32" s="9"/>
-      <c r="V32" s="9"/>
-      <c r="W32" s="9"/>
-      <c r="X32" s="9"/>
-      <c r="Y32" s="9"/>
-      <c r="Z32" s="9"/>
-      <c r="AA32" s="9"/>
-      <c r="AB32" s="9"/>
-      <c r="AC32" s="9"/>
-      <c r="AD32" s="9"/>
-      <c r="AE32" s="9"/>
-      <c r="AF32" s="9"/>
-      <c r="AG32" s="9"/>
-      <c r="AH32" s="9"/>
-      <c r="AI32" s="9"/>
-      <c r="AJ32" s="9"/>
-      <c r="AK32" s="9"/>
-      <c r="AL32" s="9"/>
-      <c r="AM32" s="9"/>
-      <c r="AN32" s="9"/>
-      <c r="AO32" s="9"/>
-      <c r="AP32" s="9"/>
+      <c r="A32" s="7"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="7"/>
+      <c r="O32" s="7"/>
+      <c r="P32" s="7"/>
+      <c r="Q32" s="7"/>
+      <c r="R32" s="7"/>
+      <c r="S32" s="7"/>
+      <c r="T32" s="7"/>
+      <c r="U32" s="7"/>
+      <c r="V32" s="7"/>
+      <c r="W32" s="7"/>
+      <c r="X32" s="7"/>
+      <c r="Y32" s="7"/>
+      <c r="Z32" s="7"/>
+      <c r="AA32" s="7"/>
+      <c r="AB32" s="7"/>
+      <c r="AC32" s="7"/>
+      <c r="AD32" s="7"/>
+      <c r="AE32" s="7"/>
+      <c r="AF32" s="7"/>
+      <c r="AG32" s="7"/>
+      <c r="AH32" s="7"/>
+      <c r="AI32" s="7"/>
+      <c r="AJ32" s="7"/>
+      <c r="AK32" s="7"/>
+      <c r="AL32" s="7"/>
+      <c r="AM32" s="7"/>
+      <c r="AN32" s="7"/>
+      <c r="AO32" s="7"/>
+      <c r="AP32" s="7"/>
     </row>
     <row r="33" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A33" s="9"/>
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="9"/>
-      <c r="K33" s="9"/>
-      <c r="L33" s="9"/>
-      <c r="M33" s="9"/>
-      <c r="N33" s="9"/>
-      <c r="O33" s="9"/>
-      <c r="P33" s="9"/>
-      <c r="Q33" s="9"/>
-      <c r="R33" s="9"/>
-      <c r="S33" s="9"/>
-      <c r="T33" s="9"/>
-      <c r="U33" s="9"/>
-      <c r="V33" s="9"/>
-      <c r="W33" s="9"/>
-      <c r="X33" s="9"/>
-      <c r="Y33" s="9"/>
-      <c r="Z33" s="9"/>
-      <c r="AA33" s="9"/>
-      <c r="AB33" s="9"/>
-      <c r="AC33" s="9"/>
-      <c r="AD33" s="9"/>
-      <c r="AE33" s="9"/>
-      <c r="AF33" s="9"/>
-      <c r="AG33" s="9"/>
-      <c r="AH33" s="9"/>
-      <c r="AI33" s="9"/>
-      <c r="AJ33" s="9"/>
-      <c r="AK33" s="9"/>
-      <c r="AL33" s="9"/>
-      <c r="AM33" s="9"/>
-      <c r="AN33" s="9"/>
-      <c r="AO33" s="9"/>
-      <c r="AP33" s="9"/>
+      <c r="A33" s="7"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="7"/>
+      <c r="N33" s="7"/>
+      <c r="O33" s="7"/>
+      <c r="P33" s="7"/>
+      <c r="Q33" s="7"/>
+      <c r="R33" s="7"/>
+      <c r="S33" s="7"/>
+      <c r="T33" s="7"/>
+      <c r="U33" s="7"/>
+      <c r="V33" s="7"/>
+      <c r="W33" s="7"/>
+      <c r="X33" s="7"/>
+      <c r="Y33" s="7"/>
+      <c r="Z33" s="7"/>
+      <c r="AA33" s="7"/>
+      <c r="AB33" s="7"/>
+      <c r="AC33" s="7"/>
+      <c r="AD33" s="7"/>
+      <c r="AE33" s="7"/>
+      <c r="AF33" s="7"/>
+      <c r="AG33" s="7"/>
+      <c r="AH33" s="7"/>
+      <c r="AI33" s="7"/>
+      <c r="AJ33" s="7"/>
+      <c r="AK33" s="7"/>
+      <c r="AL33" s="7"/>
+      <c r="AM33" s="7"/>
+      <c r="AN33" s="7"/>
+      <c r="AO33" s="7"/>
+      <c r="AP33" s="7"/>
     </row>
     <row r="34" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A34" s="9"/>
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="9"/>
-      <c r="K34" s="9"/>
-      <c r="L34" s="9"/>
-      <c r="M34" s="9"/>
-      <c r="N34" s="9"/>
-      <c r="O34" s="9"/>
-      <c r="P34" s="9"/>
-      <c r="Q34" s="9"/>
-      <c r="R34" s="9"/>
-      <c r="S34" s="9"/>
-      <c r="T34" s="9"/>
-      <c r="U34" s="9"/>
-      <c r="V34" s="9"/>
-      <c r="W34" s="9"/>
-      <c r="X34" s="9"/>
-      <c r="Y34" s="9"/>
-      <c r="Z34" s="9"/>
-      <c r="AA34" s="9"/>
-      <c r="AB34" s="9"/>
-      <c r="AC34" s="9"/>
-      <c r="AD34" s="9"/>
-      <c r="AE34" s="9"/>
-      <c r="AF34" s="9"/>
-      <c r="AG34" s="9"/>
-      <c r="AH34" s="9"/>
-      <c r="AI34" s="9"/>
-      <c r="AJ34" s="9"/>
-      <c r="AK34" s="9"/>
-      <c r="AL34" s="9"/>
-      <c r="AM34" s="9"/>
-      <c r="AN34" s="9"/>
-      <c r="AO34" s="9"/>
-      <c r="AP34" s="9"/>
+      <c r="A34" s="7"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="7"/>
+      <c r="N34" s="7"/>
+      <c r="O34" s="7"/>
+      <c r="P34" s="7"/>
+      <c r="Q34" s="7"/>
+      <c r="R34" s="7"/>
+      <c r="S34" s="7"/>
+      <c r="T34" s="7"/>
+      <c r="U34" s="7"/>
+      <c r="V34" s="7"/>
+      <c r="W34" s="7"/>
+      <c r="X34" s="7"/>
+      <c r="Y34" s="7"/>
+      <c r="Z34" s="7"/>
+      <c r="AA34" s="7"/>
+      <c r="AB34" s="7"/>
+      <c r="AC34" s="7"/>
+      <c r="AD34" s="7"/>
+      <c r="AE34" s="7"/>
+      <c r="AF34" s="7"/>
+      <c r="AG34" s="7"/>
+      <c r="AH34" s="7"/>
+      <c r="AI34" s="7"/>
+      <c r="AJ34" s="7"/>
+      <c r="AK34" s="7"/>
+      <c r="AL34" s="7"/>
+      <c r="AM34" s="7"/>
+      <c r="AN34" s="7"/>
+      <c r="AO34" s="7"/>
+      <c r="AP34" s="7"/>
     </row>
     <row r="35" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A35" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
-      <c r="J35" s="8"/>
-      <c r="K35" s="8"/>
-      <c r="L35" s="8"/>
-      <c r="M35" s="8"/>
-      <c r="N35" s="8"/>
-      <c r="O35" s="8"/>
-      <c r="P35" s="8"/>
-      <c r="Q35" s="8"/>
-      <c r="R35" s="8"/>
-      <c r="S35" s="8"/>
-      <c r="T35" s="8"/>
-      <c r="U35" s="8"/>
-      <c r="V35" s="8"/>
-      <c r="W35" s="8"/>
-      <c r="X35" s="8"/>
-      <c r="Y35" s="8"/>
-      <c r="Z35" s="8"/>
-      <c r="AA35" s="8"/>
-      <c r="AB35" s="8"/>
-      <c r="AC35" s="8"/>
-      <c r="AD35" s="8"/>
-      <c r="AE35" s="8"/>
-      <c r="AF35" s="8"/>
-      <c r="AG35" s="8"/>
-      <c r="AH35" s="8"/>
-      <c r="AI35" s="8"/>
-      <c r="AJ35" s="8"/>
-      <c r="AK35" s="8"/>
-      <c r="AL35" s="8"/>
-      <c r="AM35" s="8"/>
-      <c r="AN35" s="7"/>
-      <c r="AO35" s="7"/>
-      <c r="AP35" s="7"/>
+      <c r="A35" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="6"/>
+      <c r="N35" s="6"/>
+      <c r="O35" s="6"/>
+      <c r="P35" s="6"/>
+      <c r="Q35" s="6"/>
+      <c r="R35" s="6"/>
+      <c r="S35" s="6"/>
+      <c r="T35" s="6"/>
+      <c r="U35" s="6"/>
+      <c r="V35" s="6"/>
+      <c r="W35" s="6"/>
+      <c r="X35" s="6"/>
+      <c r="Y35" s="6"/>
+      <c r="Z35" s="6"/>
+      <c r="AA35" s="6"/>
+      <c r="AB35" s="6"/>
+      <c r="AC35" s="6"/>
+      <c r="AD35" s="6"/>
+      <c r="AE35" s="6"/>
+      <c r="AF35" s="6"/>
+      <c r="AG35" s="6"/>
+      <c r="AH35" s="6"/>
+      <c r="AI35" s="6"/>
+      <c r="AJ35" s="6"/>
+      <c r="AK35" s="6"/>
+      <c r="AL35" s="6"/>
+      <c r="AM35" s="6"/>
+      <c r="AN35" s="5"/>
+      <c r="AO35" s="5"/>
+      <c r="AP35" s="5"/>
     </row>
     <row r="36" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A36" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="7"/>
-      <c r="J36" s="8"/>
-      <c r="K36" s="8"/>
-      <c r="L36" s="8"/>
-      <c r="M36" s="8"/>
-      <c r="N36" s="8"/>
-      <c r="O36" s="8"/>
-      <c r="P36" s="8"/>
-      <c r="Q36" s="8"/>
-      <c r="R36" s="8"/>
-      <c r="S36" s="8"/>
-      <c r="T36" s="8"/>
-      <c r="U36" s="8"/>
-      <c r="V36" s="8"/>
-      <c r="W36" s="8"/>
-      <c r="X36" s="8"/>
-      <c r="Y36" s="8"/>
-      <c r="Z36" s="8"/>
-      <c r="AA36" s="8"/>
-      <c r="AB36" s="8"/>
-      <c r="AC36" s="8"/>
-      <c r="AD36" s="8"/>
-      <c r="AE36" s="8"/>
-      <c r="AF36" s="8"/>
-      <c r="AG36" s="8"/>
-      <c r="AH36" s="8"/>
-      <c r="AI36" s="8"/>
-      <c r="AJ36" s="8"/>
-      <c r="AK36" s="8"/>
-      <c r="AL36" s="8"/>
-      <c r="AM36" s="8"/>
-      <c r="AN36" s="7"/>
-      <c r="AO36" s="7"/>
-      <c r="AP36" s="7"/>
+      <c r="A36" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="6"/>
+      <c r="M36" s="6"/>
+      <c r="N36" s="6"/>
+      <c r="O36" s="6"/>
+      <c r="P36" s="6"/>
+      <c r="Q36" s="6"/>
+      <c r="R36" s="6"/>
+      <c r="S36" s="6"/>
+      <c r="T36" s="6"/>
+      <c r="U36" s="6"/>
+      <c r="V36" s="6"/>
+      <c r="W36" s="6"/>
+      <c r="X36" s="6"/>
+      <c r="Y36" s="6"/>
+      <c r="Z36" s="6"/>
+      <c r="AA36" s="6"/>
+      <c r="AB36" s="6"/>
+      <c r="AC36" s="6"/>
+      <c r="AD36" s="6"/>
+      <c r="AE36" s="6"/>
+      <c r="AF36" s="6"/>
+      <c r="AG36" s="6"/>
+      <c r="AH36" s="6"/>
+      <c r="AI36" s="6"/>
+      <c r="AJ36" s="6"/>
+      <c r="AK36" s="6"/>
+      <c r="AL36" s="6"/>
+      <c r="AM36" s="6"/>
+      <c r="AN36" s="5"/>
+      <c r="AO36" s="5"/>
+      <c r="AP36" s="5"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="217">
+    <mergeCell ref="G3"/>
+    <mergeCell ref="H3"/>
+    <mergeCell ref="I3"/>
+    <mergeCell ref="B4"/>
+    <mergeCell ref="C4"/>
+    <mergeCell ref="D4"/>
+    <mergeCell ref="E4"/>
+    <mergeCell ref="F4"/>
+    <mergeCell ref="G4"/>
+    <mergeCell ref="H4"/>
+    <mergeCell ref="I4"/>
+    <mergeCell ref="B3"/>
+    <mergeCell ref="C3"/>
+    <mergeCell ref="D3"/>
+    <mergeCell ref="E3"/>
+    <mergeCell ref="F3"/>
+    <mergeCell ref="G5"/>
+    <mergeCell ref="H5"/>
+    <mergeCell ref="I5"/>
+    <mergeCell ref="B6"/>
+    <mergeCell ref="C6"/>
+    <mergeCell ref="D6"/>
+    <mergeCell ref="E6"/>
+    <mergeCell ref="F6"/>
+    <mergeCell ref="G6"/>
+    <mergeCell ref="H6"/>
+    <mergeCell ref="I6"/>
+    <mergeCell ref="B5"/>
+    <mergeCell ref="C5"/>
+    <mergeCell ref="D5"/>
+    <mergeCell ref="E5"/>
+    <mergeCell ref="F5"/>
+    <mergeCell ref="G7"/>
+    <mergeCell ref="H7"/>
+    <mergeCell ref="I7"/>
+    <mergeCell ref="B8"/>
+    <mergeCell ref="C8"/>
+    <mergeCell ref="D8"/>
+    <mergeCell ref="E8"/>
+    <mergeCell ref="F8"/>
+    <mergeCell ref="G8"/>
+    <mergeCell ref="H8"/>
+    <mergeCell ref="I8"/>
+    <mergeCell ref="B7"/>
+    <mergeCell ref="C7"/>
+    <mergeCell ref="D7"/>
+    <mergeCell ref="E7"/>
+    <mergeCell ref="F7"/>
+    <mergeCell ref="G9"/>
+    <mergeCell ref="H9"/>
+    <mergeCell ref="I9"/>
+    <mergeCell ref="B10"/>
+    <mergeCell ref="C10"/>
+    <mergeCell ref="D10"/>
+    <mergeCell ref="E10"/>
+    <mergeCell ref="F10"/>
+    <mergeCell ref="G10"/>
+    <mergeCell ref="H10"/>
+    <mergeCell ref="I10"/>
+    <mergeCell ref="B9"/>
+    <mergeCell ref="C9"/>
+    <mergeCell ref="D9"/>
+    <mergeCell ref="E9"/>
+    <mergeCell ref="F9"/>
+    <mergeCell ref="G11"/>
+    <mergeCell ref="H11"/>
+    <mergeCell ref="I11"/>
+    <mergeCell ref="B12"/>
+    <mergeCell ref="C12"/>
+    <mergeCell ref="D12"/>
+    <mergeCell ref="E12"/>
+    <mergeCell ref="F12"/>
+    <mergeCell ref="G12"/>
+    <mergeCell ref="H12"/>
+    <mergeCell ref="I12"/>
+    <mergeCell ref="B11"/>
+    <mergeCell ref="C11"/>
+    <mergeCell ref="D11"/>
+    <mergeCell ref="E11"/>
+    <mergeCell ref="F11"/>
+    <mergeCell ref="G13"/>
+    <mergeCell ref="H13"/>
+    <mergeCell ref="I13"/>
+    <mergeCell ref="B14"/>
+    <mergeCell ref="C14"/>
+    <mergeCell ref="D14"/>
+    <mergeCell ref="E14"/>
+    <mergeCell ref="F14"/>
+    <mergeCell ref="G14"/>
+    <mergeCell ref="H14"/>
+    <mergeCell ref="I14"/>
+    <mergeCell ref="B13"/>
+    <mergeCell ref="C13"/>
+    <mergeCell ref="D13"/>
+    <mergeCell ref="E13"/>
+    <mergeCell ref="F13"/>
+    <mergeCell ref="G15"/>
+    <mergeCell ref="H15"/>
+    <mergeCell ref="I15"/>
+    <mergeCell ref="B16"/>
+    <mergeCell ref="C16"/>
+    <mergeCell ref="D16"/>
+    <mergeCell ref="E16"/>
+    <mergeCell ref="F16"/>
+    <mergeCell ref="G16"/>
+    <mergeCell ref="H16"/>
+    <mergeCell ref="I16"/>
+    <mergeCell ref="B15"/>
+    <mergeCell ref="C15"/>
+    <mergeCell ref="D15"/>
+    <mergeCell ref="E15"/>
+    <mergeCell ref="F15"/>
+    <mergeCell ref="G17"/>
+    <mergeCell ref="H17"/>
+    <mergeCell ref="I17"/>
+    <mergeCell ref="B18"/>
+    <mergeCell ref="C18"/>
+    <mergeCell ref="D18"/>
+    <mergeCell ref="E18"/>
+    <mergeCell ref="F18"/>
+    <mergeCell ref="G18"/>
+    <mergeCell ref="H18"/>
+    <mergeCell ref="I18"/>
+    <mergeCell ref="B17"/>
+    <mergeCell ref="C17"/>
+    <mergeCell ref="D17"/>
+    <mergeCell ref="E17"/>
+    <mergeCell ref="F17"/>
+    <mergeCell ref="G19"/>
+    <mergeCell ref="H19"/>
+    <mergeCell ref="I19"/>
+    <mergeCell ref="B20"/>
+    <mergeCell ref="C20"/>
+    <mergeCell ref="D20"/>
+    <mergeCell ref="E20"/>
+    <mergeCell ref="F20"/>
+    <mergeCell ref="G20"/>
+    <mergeCell ref="H20"/>
+    <mergeCell ref="I20"/>
+    <mergeCell ref="B19"/>
+    <mergeCell ref="C19"/>
+    <mergeCell ref="D19"/>
+    <mergeCell ref="E19"/>
+    <mergeCell ref="F19"/>
+    <mergeCell ref="G21"/>
+    <mergeCell ref="H21"/>
+    <mergeCell ref="I21"/>
+    <mergeCell ref="B22"/>
+    <mergeCell ref="C22"/>
+    <mergeCell ref="D22"/>
+    <mergeCell ref="E22"/>
+    <mergeCell ref="F22"/>
+    <mergeCell ref="G22"/>
+    <mergeCell ref="H22"/>
+    <mergeCell ref="I22"/>
+    <mergeCell ref="B21"/>
+    <mergeCell ref="C21"/>
+    <mergeCell ref="D21"/>
+    <mergeCell ref="E21"/>
+    <mergeCell ref="F21"/>
+    <mergeCell ref="G23"/>
+    <mergeCell ref="H23"/>
+    <mergeCell ref="I23"/>
+    <mergeCell ref="B24"/>
+    <mergeCell ref="C24"/>
+    <mergeCell ref="D24"/>
+    <mergeCell ref="E24"/>
+    <mergeCell ref="F24"/>
+    <mergeCell ref="G24"/>
+    <mergeCell ref="H24"/>
+    <mergeCell ref="I24"/>
+    <mergeCell ref="B23"/>
+    <mergeCell ref="C23"/>
+    <mergeCell ref="D23"/>
+    <mergeCell ref="E23"/>
+    <mergeCell ref="F23"/>
+    <mergeCell ref="F27"/>
+    <mergeCell ref="G25"/>
+    <mergeCell ref="H25"/>
+    <mergeCell ref="I25"/>
+    <mergeCell ref="B26"/>
+    <mergeCell ref="C26"/>
+    <mergeCell ref="D26"/>
+    <mergeCell ref="E26"/>
+    <mergeCell ref="F26"/>
+    <mergeCell ref="G26"/>
+    <mergeCell ref="H26"/>
+    <mergeCell ref="I26"/>
+    <mergeCell ref="B25"/>
+    <mergeCell ref="C25"/>
+    <mergeCell ref="D25"/>
+    <mergeCell ref="E25"/>
+    <mergeCell ref="F25"/>
     <mergeCell ref="A30:AP30"/>
     <mergeCell ref="A31:AP34"/>
     <mergeCell ref="A35:AP35"/>
@@ -4824,202 +5151,8 @@
     <mergeCell ref="C27"/>
     <mergeCell ref="D27"/>
     <mergeCell ref="E27"/>
-    <mergeCell ref="F27"/>
-    <mergeCell ref="G25"/>
-    <mergeCell ref="H25"/>
-    <mergeCell ref="I25"/>
-    <mergeCell ref="B26"/>
-    <mergeCell ref="C26"/>
-    <mergeCell ref="D26"/>
-    <mergeCell ref="E26"/>
-    <mergeCell ref="F26"/>
-    <mergeCell ref="G26"/>
-    <mergeCell ref="H26"/>
-    <mergeCell ref="I26"/>
-    <mergeCell ref="B25"/>
-    <mergeCell ref="C25"/>
-    <mergeCell ref="D25"/>
-    <mergeCell ref="E25"/>
-    <mergeCell ref="F25"/>
-    <mergeCell ref="G23"/>
-    <mergeCell ref="H23"/>
-    <mergeCell ref="I23"/>
-    <mergeCell ref="B24"/>
-    <mergeCell ref="C24"/>
-    <mergeCell ref="D24"/>
-    <mergeCell ref="E24"/>
-    <mergeCell ref="F24"/>
-    <mergeCell ref="G24"/>
-    <mergeCell ref="H24"/>
-    <mergeCell ref="I24"/>
-    <mergeCell ref="B23"/>
-    <mergeCell ref="C23"/>
-    <mergeCell ref="D23"/>
-    <mergeCell ref="E23"/>
-    <mergeCell ref="F23"/>
-    <mergeCell ref="G21"/>
-    <mergeCell ref="H21"/>
-    <mergeCell ref="I21"/>
-    <mergeCell ref="B22"/>
-    <mergeCell ref="C22"/>
-    <mergeCell ref="D22"/>
-    <mergeCell ref="E22"/>
-    <mergeCell ref="F22"/>
-    <mergeCell ref="G22"/>
-    <mergeCell ref="H22"/>
-    <mergeCell ref="I22"/>
-    <mergeCell ref="B21"/>
-    <mergeCell ref="C21"/>
-    <mergeCell ref="D21"/>
-    <mergeCell ref="E21"/>
-    <mergeCell ref="F21"/>
-    <mergeCell ref="G19"/>
-    <mergeCell ref="H19"/>
-    <mergeCell ref="I19"/>
-    <mergeCell ref="B20"/>
-    <mergeCell ref="C20"/>
-    <mergeCell ref="D20"/>
-    <mergeCell ref="E20"/>
-    <mergeCell ref="F20"/>
-    <mergeCell ref="G20"/>
-    <mergeCell ref="H20"/>
-    <mergeCell ref="I20"/>
-    <mergeCell ref="B19"/>
-    <mergeCell ref="C19"/>
-    <mergeCell ref="D19"/>
-    <mergeCell ref="E19"/>
-    <mergeCell ref="F19"/>
-    <mergeCell ref="G17"/>
-    <mergeCell ref="H17"/>
-    <mergeCell ref="I17"/>
-    <mergeCell ref="B18"/>
-    <mergeCell ref="C18"/>
-    <mergeCell ref="D18"/>
-    <mergeCell ref="E18"/>
-    <mergeCell ref="F18"/>
-    <mergeCell ref="G18"/>
-    <mergeCell ref="H18"/>
-    <mergeCell ref="I18"/>
-    <mergeCell ref="B17"/>
-    <mergeCell ref="C17"/>
-    <mergeCell ref="D17"/>
-    <mergeCell ref="E17"/>
-    <mergeCell ref="F17"/>
-    <mergeCell ref="G15"/>
-    <mergeCell ref="H15"/>
-    <mergeCell ref="I15"/>
-    <mergeCell ref="B16"/>
-    <mergeCell ref="C16"/>
-    <mergeCell ref="D16"/>
-    <mergeCell ref="E16"/>
-    <mergeCell ref="F16"/>
-    <mergeCell ref="G16"/>
-    <mergeCell ref="H16"/>
-    <mergeCell ref="I16"/>
-    <mergeCell ref="B15"/>
-    <mergeCell ref="C15"/>
-    <mergeCell ref="D15"/>
-    <mergeCell ref="E15"/>
-    <mergeCell ref="F15"/>
-    <mergeCell ref="G13"/>
-    <mergeCell ref="H13"/>
-    <mergeCell ref="I13"/>
-    <mergeCell ref="B14"/>
-    <mergeCell ref="C14"/>
-    <mergeCell ref="D14"/>
-    <mergeCell ref="E14"/>
-    <mergeCell ref="F14"/>
-    <mergeCell ref="G14"/>
-    <mergeCell ref="H14"/>
-    <mergeCell ref="I14"/>
-    <mergeCell ref="B13"/>
-    <mergeCell ref="C13"/>
-    <mergeCell ref="D13"/>
-    <mergeCell ref="E13"/>
-    <mergeCell ref="F13"/>
-    <mergeCell ref="G11"/>
-    <mergeCell ref="H11"/>
-    <mergeCell ref="I11"/>
-    <mergeCell ref="B12"/>
-    <mergeCell ref="C12"/>
-    <mergeCell ref="D12"/>
-    <mergeCell ref="E12"/>
-    <mergeCell ref="F12"/>
-    <mergeCell ref="G12"/>
-    <mergeCell ref="H12"/>
-    <mergeCell ref="I12"/>
-    <mergeCell ref="B11"/>
-    <mergeCell ref="C11"/>
-    <mergeCell ref="D11"/>
-    <mergeCell ref="E11"/>
-    <mergeCell ref="F11"/>
-    <mergeCell ref="G9"/>
-    <mergeCell ref="H9"/>
-    <mergeCell ref="I9"/>
-    <mergeCell ref="B10"/>
-    <mergeCell ref="C10"/>
-    <mergeCell ref="D10"/>
-    <mergeCell ref="E10"/>
-    <mergeCell ref="F10"/>
-    <mergeCell ref="G10"/>
-    <mergeCell ref="H10"/>
-    <mergeCell ref="I10"/>
-    <mergeCell ref="B9"/>
-    <mergeCell ref="C9"/>
-    <mergeCell ref="D9"/>
-    <mergeCell ref="E9"/>
-    <mergeCell ref="F9"/>
-    <mergeCell ref="G7"/>
-    <mergeCell ref="H7"/>
-    <mergeCell ref="I7"/>
-    <mergeCell ref="B8"/>
-    <mergeCell ref="C8"/>
-    <mergeCell ref="D8"/>
-    <mergeCell ref="E8"/>
-    <mergeCell ref="F8"/>
-    <mergeCell ref="G8"/>
-    <mergeCell ref="H8"/>
-    <mergeCell ref="I8"/>
-    <mergeCell ref="B7"/>
-    <mergeCell ref="C7"/>
-    <mergeCell ref="D7"/>
-    <mergeCell ref="E7"/>
-    <mergeCell ref="F7"/>
-    <mergeCell ref="G5"/>
-    <mergeCell ref="H5"/>
-    <mergeCell ref="I5"/>
-    <mergeCell ref="B6"/>
-    <mergeCell ref="C6"/>
-    <mergeCell ref="D6"/>
-    <mergeCell ref="E6"/>
-    <mergeCell ref="F6"/>
-    <mergeCell ref="G6"/>
-    <mergeCell ref="H6"/>
-    <mergeCell ref="I6"/>
-    <mergeCell ref="B5"/>
-    <mergeCell ref="C5"/>
-    <mergeCell ref="D5"/>
-    <mergeCell ref="E5"/>
-    <mergeCell ref="F5"/>
-    <mergeCell ref="G3"/>
-    <mergeCell ref="H3"/>
-    <mergeCell ref="I3"/>
-    <mergeCell ref="B4"/>
-    <mergeCell ref="C4"/>
-    <mergeCell ref="D4"/>
-    <mergeCell ref="E4"/>
-    <mergeCell ref="F4"/>
-    <mergeCell ref="G4"/>
-    <mergeCell ref="H4"/>
-    <mergeCell ref="I4"/>
-    <mergeCell ref="B3"/>
-    <mergeCell ref="C3"/>
-    <mergeCell ref="D3"/>
-    <mergeCell ref="E3"/>
-    <mergeCell ref="F3"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>